--- a/churuku_query/gonghuodanwei_luru.xlsx
+++ b/churuku_query/gonghuodanwei_luru.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CZQ\Desktop\All-main\All-main\churuku_query\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CZQ\Desktop\czq_dev\All\churuku_query\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7233475-60FB-4D2D-AA21-D6C33574B75E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33564005-239A-41A1-B154-63B9E9980591}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12827" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -469,8 +469,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1235</v>
+      </c>
+      <c r="B4">
+        <v>1002</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>556677</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>10241026</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>